--- a/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
+++ b/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/appGreece/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19000" yWindow="3860" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="1"/>
+    <workbookView xWindow="19000" yWindow="3860" windowWidth="25600" windowHeight="16060" tabRatio="994"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="171">
   <si>
     <t>clause</t>
   </si>
@@ -329,15 +329,6 @@
   </si>
   <si>
     <t>isSessionVariable</t>
-  </si>
-  <si>
-    <t>registrationMember</t>
-  </si>
-  <si>
-    <t>beneficiary_code = ?</t>
-  </si>
-  <si>
-    <t>[ data('beneficiary_code') ]</t>
   </si>
   <si>
     <t>Household Members Section:</t>
@@ -526,9 +517,6 @@
     <t>async_assign_single_string</t>
   </si>
   <si>
-    <t>{beneficiary_code: data('beneficiary_code'), _group_modify: metadata('_group_modify')}</t>
-  </si>
-  <si>
     <t>!data('tent_caravan')</t>
   </si>
   <si>
@@ -551,13 +539,49 @@
   </si>
   <si>
     <t>Custom Beneficiary Entities</t>
+  </si>
+  <si>
+    <t>custom_individuals</t>
+  </si>
+  <si>
+    <t>[ data('custom_beneficiary_entity_row_id')]</t>
+  </si>
+  <si>
+    <t>custom_beneficiary_entity_row_id = ?</t>
+  </si>
+  <si>
+    <t>{custom_beneficiary_entity_row_id: data('custom_beneficiary_entity_row_id'), _group_modify: metadata('_group_modify')}</t>
+  </si>
+  <si>
+    <r>
+      <t>[ data('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>custom_beneficiary_entity_row_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>) ]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -609,6 +633,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1266,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1355,7 +1385,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -1374,7 +1404,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -1400,13 +1430,13 @@
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -1533,10 +1563,10 @@
         <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1545,17 +1575,17 @@
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F15" s="12"/>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1586,7 +1616,7 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -1602,13 +1632,13 @@
         <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -1650,14 +1680,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="12"/>
       <c r="H23" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1683,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1710,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2"/>
     </row>
@@ -1728,7 +1758,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C4"/>
     </row>
@@ -1737,7 +1767,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1776,13 +1806,13 @@
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
@@ -1796,16 +1826,16 @@
         <v>36</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1816,16 +1846,16 @@
         <v>53</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1836,16 +1866,16 @@
         <v>55</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1856,16 +1886,16 @@
         <v>56</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1876,16 +1906,16 @@
         <v>57</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1896,16 +1926,16 @@
         <v>59</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1916,16 +1946,16 @@
         <v>61</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1936,16 +1966,16 @@
         <v>63</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1956,16 +1986,16 @@
         <v>65</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2069,10 +2099,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2080,7 +2110,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2142,10 +2172,10 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2153,10 +2183,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2164,10 +2194,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2175,10 +2205,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,10 +2216,10 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +2303,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2314,27 +2344,27 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>95</v>
@@ -2342,22 +2372,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
+      <c r="C3" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
         <v>95</v>
@@ -2438,7 +2468,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
@@ -2446,7 +2476,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>27</v>
@@ -2454,7 +2484,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>27</v>
@@ -2462,7 +2492,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>27</v>
@@ -2470,7 +2500,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>27</v>
@@ -2478,7 +2508,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>27</v>
@@ -2486,7 +2516,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>27</v>
@@ -2494,7 +2524,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>18</v>

--- a/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
+++ b/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="167">
   <si>
     <t>clause</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>now().getTime()</t>
-  </si>
-  <si>
-    <t>is_active</t>
-  </si>
-  <si>
-    <t>is_override</t>
   </si>
   <si>
     <t>begin screen</t>
@@ -527,12 +521,6 @@
   </si>
   <si>
     <t>Either tent/caravan or address must be completed.</t>
-  </si>
-  <si>
-    <t>(data('is_active') !== null &amp;&amp; data('is_active') !== undefined) ? data('is_active') : 'TRUE'</t>
-  </si>
-  <si>
-    <t>(data('is_override') !== null &amp;&amp; data('is_override') !== undefined) ? data('is_override') : 'FALSE'</t>
   </si>
   <si>
     <t>custom_beneficiary_entities</t>
@@ -791,7 +779,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -805,7 +793,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1294,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1350,8 +1337,8 @@
       <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>160</v>
+      <c r="L1" s="36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1374,116 +1361,111 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3"/>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B3"/>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
-        <v>162</v>
-      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="409" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
-        <v>163</v>
-      </c>
+      <c r="C4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:12" ht="409" x14ac:dyDescent="0.3">
-      <c r="A6"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B6"/>
-      <c r="C6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="12"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8"/>
       <c r="B8"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8"/>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9"/>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B9"/>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="12"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -1491,217 +1473,184 @@
       <c r="K9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11"/>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="12"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="12"/>
+      <c r="A12"/>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="H13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" t="s">
-        <v>161</v>
-      </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="K15" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" t="s">
-        <v>161</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B16"/>
+      <c r="C16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A17"/>
       <c r="B17"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17"/>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B18"/>
-      <c r="C18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A19"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B19"/>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" t="s">
-        <v>98</v>
-      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
+      <c r="K19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21"/>
-      <c r="E21" s="11"/>
+      <c r="C21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F21" s="12"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
+      <c r="H21" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A23"/>
       <c r="F23" s="12"/>
-      <c r="H23" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-      <c r="F25" s="12"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1719,63 +1668,63 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="20" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B2" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B3" s="19">
+        <v>20170919</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="B4" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="20">
-        <v>20170919</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
+      <c r="B6" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1800,202 +1749,202 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>110</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>113</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>116</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>125</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>128</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>134</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2023,72 +1972,72 @@
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -2099,18 +2048,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2135,91 +2084,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>44</v>
+      <c r="A1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2242,54 +2191,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="D2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2319,81 +2268,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="30" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="C2" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>170</v>
-      </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2417,34 +2366,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2467,67 +2416,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="B4" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="B5" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="B6" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>18</v>
+      <c r="B8" s="23" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
+++ b/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19000" yWindow="3860" windowWidth="25600" windowHeight="16060" tabRatio="994"/>
+    <workbookView xWindow="19000" yWindow="3860" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -532,13 +532,7 @@
     <t>custom_individuals</t>
   </si>
   <si>
-    <t>[ data('custom_beneficiary_entity_row_id')]</t>
-  </si>
-  <si>
     <t>custom_beneficiary_entity_row_id = ?</t>
-  </si>
-  <si>
-    <t>{custom_beneficiary_entity_row_id: data('custom_beneficiary_entity_row_id'), _group_modify: metadata('_group_modify')}</t>
   </si>
   <si>
     <r>
@@ -563,6 +557,12 @@
       </rPr>
       <t>) ]</t>
     </r>
+  </si>
+  <si>
+    <t>[ metadata('_id')]</t>
+  </si>
+  <si>
+    <t>{custom_beneficiary_entity_row_id: metadata('_id'), _group_modify: metadata('_group_modify')}</t>
   </si>
 </sst>
 </file>
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -2251,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2307,13 +2307,13 @@
         <v>162</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>93</v>
@@ -2333,10 +2333,10 @@
         <v>162</v>
       </c>
       <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
         <v>164</v>
-      </c>
-      <c r="F3" t="s">
-        <v>166</v>
       </c>
       <c r="G3" t="s">
         <v>93</v>

--- a/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
+++ b/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19000" yWindow="3860" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="6"/>
+    <workbookView xWindow="16640" yWindow="4780" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
   <si>
     <t>clause</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>text.spanish</t>
   </si>
   <si>
     <t>ID Number</t>
@@ -365,123 +362,6 @@
   </si>
   <si>
     <t>Athens</t>
-  </si>
-  <si>
-    <t>العنوان</t>
-  </si>
-  <si>
-    <t>نشانی</t>
-  </si>
-  <si>
-    <t>Dirección</t>
-  </si>
-  <si>
-    <t>رقم الهوية</t>
-  </si>
-  <si>
-    <t>شماره شناسایی</t>
-  </si>
-  <si>
-    <t>Número de ID</t>
-  </si>
-  <si>
-    <t>المدينة</t>
-  </si>
-  <si>
-    <t>شهر</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>رقم التليفون</t>
-  </si>
-  <si>
-    <t>تلفن</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>شركة الموبايل</t>
-  </si>
-  <si>
-    <t>ارائه دهنده تلفن همراه</t>
-  </si>
-  <si>
-    <t>Proveedor móvil</t>
-  </si>
-  <si>
-    <t>تم تمكينها بنجاح</t>
-  </si>
-  <si>
-    <t>موفقیت فعال!</t>
-  </si>
-  <si>
-    <t>Activado satisfactoriamente!</t>
-  </si>
-  <si>
-    <t>تم تعطيلها بنجاح</t>
-  </si>
-  <si>
-    <t>موفقیت غیر فعال!</t>
-  </si>
-  <si>
-    <t>Desactivado satisfactoriamente!</t>
-  </si>
-  <si>
-    <t>اختيار اتحقاق للتسليم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">انتخاب  به عنوان حق برای ارائه </t>
-  </si>
-  <si>
-    <t>Elegir un título para distribuir</t>
-  </si>
-  <si>
-    <t>لا استحقاقات للتسليم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تحویل بدون به  حقوق </t>
-  </si>
-  <si>
-    <t>No hay títulos para entregar</t>
-  </si>
-  <si>
-    <t>text.arabic</t>
-  </si>
-  <si>
-    <t>text.farsi</t>
-  </si>
-  <si>
-    <t>Διεύθυνση</t>
-  </si>
-  <si>
-    <t>Αριθμό ταυτότητας</t>
-  </si>
-  <si>
-    <t>Πόλη</t>
-  </si>
-  <si>
-    <t>Τηλέφωνο</t>
-  </si>
-  <si>
-    <t>Παροχέας κινητής τηλεφωνίας</t>
-  </si>
-  <si>
-    <t>Επιτυχής!</t>
-  </si>
-  <si>
-    <t>Επιτυχής Απενεργοποίηση!</t>
-  </si>
-  <si>
-    <t>Επιλέξτε ένα Δικαίωμα παράδοσης</t>
-  </si>
-  <si>
-    <t>Δεν υπάρχουν Δικαιώματα παράδοσης</t>
-  </si>
-  <si>
-    <t>text.greek</t>
   </si>
   <si>
     <t>async_assign_count</t>
@@ -564,12 +444,27 @@
   <si>
     <t>{custom_beneficiary_entity_row_id: metadata('_id'), _group_modify: metadata('_group_modify')}</t>
   </si>
+  <si>
+    <t>Delivery Site</t>
+  </si>
+  <si>
+    <t>Household Size</t>
+  </si>
+  <si>
+    <t>Disabled Reason</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Tent/Caravan Code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -612,13 +507,6 @@
       <sz val="12"/>
       <color theme="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -779,7 +667,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -832,8 +720,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1337,8 +1223,8 @@
       <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
-        <v>158</v>
+      <c r="L1" s="34" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1379,13 +1265,13 @@
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>102</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -1512,10 +1398,10 @@
         <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1524,17 +1410,17 @@
         <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F13" s="12"/>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1565,7 +1451,7 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1578,16 +1464,16 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -1629,14 +1515,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="12"/>
       <c r="H21" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1689,7 +1575,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C2"/>
     </row>
@@ -1707,7 +1593,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C4"/>
     </row>
@@ -1716,7 +1602,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1735,216 +1621,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="3" width="41" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="34" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="34" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="34" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="34" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1764,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1976,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2024,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2048,10 +1854,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2059,7 +1865,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2085,10 +1891,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>42</v>
@@ -2099,10 +1905,10 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2110,10 +1916,10 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2121,10 +1927,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2132,10 +1938,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2143,10 +1949,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2154,10 +1960,10 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2165,10 +1971,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2192,13 +1998,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>2</v>
@@ -2209,36 +2015,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
       <c r="C3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2269,80 +2075,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2373,27 +2179,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>2</v>
@@ -2425,7 +2231,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>25</v>
@@ -2433,7 +2239,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>25</v>
@@ -2441,7 +2247,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>25</v>
@@ -2449,7 +2255,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>25</v>
@@ -2457,7 +2263,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>25</v>
@@ -2465,7 +2271,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -2473,7 +2279,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>16</v>

--- a/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
+++ b/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
@@ -187,9 +187,6 @@
     <t>string_token</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>ID Number</t>
   </si>
   <si>
@@ -458,6 +455,9 @@
   </si>
   <si>
     <t>Tent/Caravan Code</t>
+  </si>
+  <si>
+    <t>text.default</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1265,13 +1265,13 @@
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>101</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -1398,10 +1398,10 @@
         <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1410,17 +1410,17 @@
         <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="F13" s="12"/>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1464,16 +1464,16 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>96</v>
-      </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -1515,14 +1515,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="12"/>
       <c r="H21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2"/>
     </row>
@@ -1593,7 +1593,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4"/>
     </row>
@@ -1602,7 +1602,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1638,7 +1638,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,15 +1654,15 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,7 +1670,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1678,39 +1678,39 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1726,15 +1726,15 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1742,15 +1742,15 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1854,10 +1854,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1865,7 +1865,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1891,10 +1891,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>42</v>
@@ -1905,10 +1905,10 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1916,10 +1916,10 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1927,10 +1927,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1938,10 +1938,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1949,10 +1949,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1960,10 +1960,10 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1971,10 +1971,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1998,13 +1998,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>2</v>
@@ -2015,36 +2015,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
       <c r="C3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2075,80 +2075,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2179,27 +2179,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>2</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>25</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>25</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>25</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>25</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>25</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>16</v>

--- a/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
+++ b/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="4780" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="2"/>
+    <workbookView xWindow="10420" yWindow="4820" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
-    <sheet name="table_specific_translations" sheetId="3" r:id="rId3"/>
-    <sheet name="model" sheetId="4" r:id="rId4"/>
-    <sheet name="choices" sheetId="6" r:id="rId5"/>
-    <sheet name="properties" sheetId="8" r:id="rId6"/>
-    <sheet name="queries" sheetId="9" r:id="rId7"/>
-    <sheet name="initial" sheetId="11" r:id="rId8"/>
-    <sheet name="prompt_types" sheetId="12" r:id="rId9"/>
+    <sheet name="model" sheetId="4" r:id="rId3"/>
+    <sheet name="choices" sheetId="6" r:id="rId4"/>
+    <sheet name="properties" sheetId="8" r:id="rId5"/>
+    <sheet name="queries" sheetId="9" r:id="rId6"/>
+    <sheet name="initial" sheetId="11" r:id="rId7"/>
+    <sheet name="prompt_types" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>clause</t>
   </si>
@@ -73,18 +72,9 @@
     <t>required</t>
   </si>
   <si>
-    <t>assign</t>
-  </si>
-  <si>
     <t>verify_user</t>
   </si>
   <si>
-    <t>date_screened</t>
-  </si>
-  <si>
-    <t>now().getTime()</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -97,9 +87,6 @@
     <t>end screen</t>
   </si>
   <si>
-    <t>id_number</t>
-  </si>
-  <si>
     <t>mobile_provider</t>
   </si>
   <si>
@@ -182,48 +169,6 @@
   </si>
   <si>
     <t>instance_name</t>
-  </si>
-  <si>
-    <t>string_token</t>
-  </si>
-  <si>
-    <t>ID Number</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Mobile Provider</t>
-  </si>
-  <si>
-    <t>enable_success</t>
-  </si>
-  <si>
-    <t>Successfully Enabled!</t>
-  </si>
-  <si>
-    <t>disable_success</t>
-  </si>
-  <si>
-    <t>Successfully Disabled!</t>
-  </si>
-  <si>
-    <t>choose_entitlement</t>
-  </si>
-  <si>
-    <t>Choose an Entitlement To Deliver</t>
-  </si>
-  <si>
-    <t>no_entitlements</t>
-  </si>
-  <si>
-    <t>No Entitlements to Deliver</t>
   </si>
   <si>
     <t>disabled_reason</t>
@@ -440,24 +385,6 @@
   </si>
   <si>
     <t>{custom_beneficiary_entity_row_id: metadata('_id'), _group_modify: metadata('_group_modify')}</t>
-  </si>
-  <si>
-    <t>Delivery Site</t>
-  </si>
-  <si>
-    <t>Household Size</t>
-  </si>
-  <si>
-    <t>Disabled Reason</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Tent/Caravan Code</t>
-  </si>
-  <si>
-    <t>text.default</t>
   </si>
 </sst>
 </file>
@@ -622,8 +549,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -722,7 +653,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -744,6 +675,8 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -765,6 +698,8 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1167,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1224,219 +1159,216 @@
         <v>10</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2"/>
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B2"/>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="3" spans="1:12" ht="409" x14ac:dyDescent="0.3">
+      <c r="A3"/>
       <c r="B3"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>82</v>
+      </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3"/>
-    </row>
-    <row r="4" spans="1:12" ht="409" x14ac:dyDescent="0.3">
-      <c r="A4"/>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B4"/>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>100</v>
-      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
+      <c r="K4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="12"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6"/>
       <c r="B6"/>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="12"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
+      <c r="K6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="12"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7"/>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8"/>
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B8"/>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="F8" s="12"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
+      <c r="J8"/>
       <c r="K8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9"/>
+        <v>12</v>
+      </c>
       <c r="F9" s="12"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
+      <c r="A10"/>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="12"/>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>98</v>
+      <c r="A13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="K13" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B15"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15"/>
@@ -1444,43 +1376,39 @@
       <c r="J15"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.3">
+      <c r="A16"/>
       <c r="B16"/>
-      <c r="C16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16"/>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A17"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B17"/>
-      <c r="C17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" t="s">
-        <v>94</v>
-      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
+      <c r="K17"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B18"/>
       <c r="E18" s="11"/>
@@ -1491,52 +1419,40 @@
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="H20" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
+      <c r="A21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="H21" s="1" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A22"/>
       <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="F23" s="12"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1561,27 +1477,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="19">
         <v>20170919</v>
@@ -1590,27 +1506,27 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1620,146 +1536,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1782,71 +1558,71 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
@@ -1854,18 +1630,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1874,12 +1650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1891,90 +1667,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1998,53 +1774,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +1829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2075,80 +1851,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +1933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2179,27 +1955,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +1983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -2223,7 +1999,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>2</v>
@@ -2231,58 +2007,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
+++ b/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="4820" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="3"/>
+    <workbookView xWindow="10420" yWindow="4820" windowWidth="25600" windowHeight="16060" tabRatio="994"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="initial" sheetId="11" r:id="rId7"/>
     <sheet name="prompt_types" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1230,15 +1230,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1248,19 +1252,15 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
+      <c r="J7"/>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1283,20 +1283,22 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1305,16 +1307,14 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -1323,20 +1323,20 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="K12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" t="s">
-        <v>100</v>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1654,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
+++ b/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="4820" windowWidth="25600" windowHeight="16060" tabRatio="994"/>
+    <workbookView xWindow="10420" yWindow="4820" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>reg_members</t>
   </si>
   <si>
-    <t>Make a list of all individuals who normally live in this household</t>
-  </si>
-  <si>
     <t>consent_signature</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
   </si>
   <si>
     <t>Custom Beneficiary Entities</t>
-  </si>
-  <si>
-    <t>custom_individuals</t>
   </si>
   <si>
     <t>custom_beneficiary_entity_row_id = ?</t>
@@ -385,6 +379,12 @@
   </si>
   <si>
     <t>{custom_beneficiary_entity_row_id: metadata('_id'), _group_modify: metadata('_group_modify')}</t>
+  </si>
+  <si>
+    <t>Make a list of all members who normally live in this household</t>
+  </si>
+  <si>
+    <t>custom_members</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1159,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1181,13 +1181,13 @@
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>82</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -1295,10 +1295,10 @@
         <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1307,17 +1307,17 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F11" s="12"/>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1386,7 +1386,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
         <v>76</v>
@@ -1431,14 +1431,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="12"/>
       <c r="H20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1491,7 +1491,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2"/>
     </row>
@@ -1509,7 +1509,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4"/>
     </row>
@@ -1518,7 +1518,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1630,10 +1630,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1641,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1703,10 +1703,10 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1714,10 +1714,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1725,10 +1725,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1736,10 +1736,10 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1747,10 +1747,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1833,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1883,19 +1883,19 @@
         <v>72</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>106</v>
-      </c>
       <c r="G2" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>73</v>
@@ -1903,22 +1903,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
       </c>
       <c r="G3" t="s">
         <v>73</v>
@@ -1999,7 +1999,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>2</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>21</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>21</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>21</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>21</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>21</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>21</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>13</v>

--- a/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
+++ b/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/custom_beneficiary_entities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="4820" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="5"/>
+    <workbookView xWindow="3200" yWindow="620" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
   <si>
     <t>clause</t>
   </si>
@@ -132,12 +132,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>hh_size</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
   </si>
   <si>
     <t>instance_name</t>
-  </si>
-  <si>
-    <t>disabled_reason</t>
   </si>
   <si>
     <t>display.text</t>
@@ -1102,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1159,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1181,13 +1172,13 @@
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -1295,10 +1286,10 @@
         <v>30</v>
       </c>
       <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
         <v>96</v>
-      </c>
-      <c r="L10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1307,17 +1298,17 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F11" s="12"/>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1367,7 +1358,7 @@
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1380,16 +1371,16 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -1420,39 +1411,27 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
+      <c r="A20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="H20" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A21"/>
       <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="F22" s="12"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1477,27 +1456,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <v>20170919</v>
@@ -1506,24 +1485,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>14</v>
@@ -1537,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1558,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,15 +1585,18 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1622,26 +1604,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1667,13 +1630,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1681,10 +1644,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1692,10 +1655,10 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1703,10 +1666,10 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1714,10 +1677,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1725,10 +1688,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1736,10 +1699,10 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1747,10 +1710,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1774,53 +1737,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1797,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1851,80 +1814,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>105</v>
-      </c>
       <c r="H2" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1955,27 +1918,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>2</v>
@@ -2007,7 +1970,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>21</v>
@@ -2015,7 +1978,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>21</v>
@@ -2023,7 +1986,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>21</v>
@@ -2031,7 +1994,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>21</v>
@@ -2039,7 +2002,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>21</v>
@@ -2047,7 +2010,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>21</v>
@@ -2055,7 +2018,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>13</v>
